--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/CQDGObservationDiseaseStatus</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/CQDGObservationDiseaseStatus</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/cqdg-observation-group</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/cqdg-observation-group</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1043,215 +1043,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>Observation.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://fhir.cqdg.ca/CodeSystem/disease-status</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>Observation.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
+    <t>https://fhir.cqdg.ca/ValueSet/disease-status-vs</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2049,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP71"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2058,7 +1850,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5906,13 +5698,11 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5965,7 +5755,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>331</v>
@@ -5991,16 +5781,20 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>105</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6024,13 +5818,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6048,7 +5842,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>107</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6057,10 +5851,10 @@
         <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6069,10 +5863,10 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>108</v>
+        <v>339</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6083,14 +5877,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6109,18 +5903,20 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>112</v>
+        <v>342</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>113</v>
+        <v>343</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6144,31 +5940,31 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6180,33 +5976,33 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>108</v>
+        <v>350</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6226,22 +6022,22 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6290,7 +6086,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6311,10 +6107,10 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6325,10 +6121,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6351,15 +6147,17 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6384,13 +6182,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6408,7 +6206,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>107</v>
+        <v>360</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6420,44 +6218,44 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>108</v>
+        <v>368</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6469,18 +6267,20 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>371</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
+        <v>372</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6504,43 +6304,43 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6549,10 +6349,10 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6563,10 +6363,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6586,23 +6386,21 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6626,11 +6424,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6648,7 +6448,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6666,27 +6466,27 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6706,19 +6506,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>389</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6768,7 +6568,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6786,27 +6586,27 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6817,7 +6617,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6826,20 +6626,22 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6888,19 +6690,19 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>403</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6909,10 +6711,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6923,10 +6725,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6946,21 +6748,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
+        <v>106</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7008,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>107</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7020,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7029,10 +6829,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7043,21 +6843,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7066,23 +6866,21 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>113</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7130,19 +6928,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>388</v>
+        <v>118</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7151,10 +6949,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>390</v>
+        <v>108</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7165,45 +6963,45 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>395</v>
+        <v>114</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7252,19 +7050,19 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7273,10 +7071,10 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>399</v>
+        <v>189</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7287,10 +7085,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7313,20 +7111,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7350,13 +7144,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7374,7 +7168,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7383,7 +7177,7 @@
         <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>102</v>
@@ -7395,10 +7189,10 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>189</v>
+        <v>418</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7409,21 +7203,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7435,20 +7229,16 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7472,13 +7262,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7496,16 +7286,16 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
@@ -7514,27 +7304,27 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>418</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7545,7 +7335,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7557,19 +7347,19 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>422</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7594,13 +7384,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7618,13 +7408,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7636,13 +7426,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>428</v>
+        <v>350</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7653,10 +7443,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7667,7 +7457,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7682,15 +7472,17 @@
         <v>239</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7717,34 +7509,34 @@
         <v>156</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7756,27 +7548,27 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7799,19 +7591,17 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7836,13 +7626,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7860,7 +7650,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7881,10 +7671,10 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7895,10 +7685,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7921,17 +7711,15 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>449</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7980,7 +7768,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7998,27 +7786,27 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8029,7 +7817,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -8038,19 +7826,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8100,13 +7888,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -8118,27 +7906,27 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8158,23 +7946,21 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8222,7 +8008,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8234,7 +8020,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>472</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8243,10 +8029,10 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8257,10 +8043,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8271,7 +8057,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8280,19 +8066,23 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8340,19 +8130,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>107</v>
+        <v>463</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8361,10 +8151,10 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>108</v>
+        <v>469</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8375,21 +8165,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8401,17 +8191,15 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8460,19 +8248,19 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8495,14 +8283,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>478</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8515,26 +8303,24 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>479</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>480</v>
+        <v>113</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8582,7 +8368,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>481</v>
+        <v>118</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8606,7 +8392,7 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8617,42 +8403,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>483</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8700,19 +8490,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8721,10 +8511,10 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8735,10 +8525,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8746,7 +8536,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>90</v>
@@ -8758,19 +8548,23 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>483</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8794,13 +8588,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8818,16 +8612,16 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>102</v>
@@ -8836,16 +8630,16 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>487</v>
+        <v>258</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>492</v>
+        <v>259</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -8853,10 +8647,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8876,22 +8670,22 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>495</v>
+        <v>319</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>497</v>
+        <v>321</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8916,13 +8710,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8940,7 +8734,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8958,27 +8752,27 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>501</v>
+        <v>325</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8989,7 +8783,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9004,16 +8798,16 @@
         <v>239</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>506</v>
+        <v>335</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9038,13 +8832,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>507</v>
+        <v>336</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>508</v>
+        <v>337</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -9062,16 +8856,16 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -9080,13 +8874,13 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>501</v>
+        <v>189</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9097,21 +8891,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9123,17 +8917,19 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>510</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>511</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9158,13 +8954,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9182,13 +8978,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -9200,27 +8996,27 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>514</v>
+        <v>350</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9231,7 +9027,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9243,16 +9039,20 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9300,13 +9100,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9321,1347 +9121,15 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>487</v>
+        <v>404</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>518</v>
+        <v>405</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP71" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:10:49+00:00</t>
+    <t>2023-05-08T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-12T12:33:13+00:00</t>
+    <t>2023-08-01T16:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,132 +118,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t>Vital Signs
@@ -1666,10 +1540,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1841,7 +1715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP60"/>
+  <dimension ref="A1:AP59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1854,11 +1728,10 @@
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1866,7271 +1739,7143 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="11.4375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="30.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>76</v>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>261</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>327</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>346</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>347</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>351</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>353</v>
+        <v>197</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>366</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>369</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>376</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>396</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>398</v>
+        <v>62</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>63</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>65</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>405</v>
+        <v>66</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>113</v>
+        <v>369</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>189</v>
+        <v>377</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>414</v>
+        <v>197</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>417</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>438</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>431</v>
+        <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>432</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>441</v>
+        <v>62</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>458</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>398</v>
+        <v>62</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>464</v>
+        <v>63</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>463</v>
+        <v>65</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>468</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>469</v>
+        <v>66</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>113</v>
+        <v>369</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>114</v>
+        <v>434</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>277</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>481</v>
+        <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>484</v>
+        <v>301</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>485</v>
+        <v>302</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
+        <v>446</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>343</v>
+        <v>447</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>346</v>
+        <v>38</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>347</v>
+        <v>38</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="449">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1865,19 +1869,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -1888,10 +1892,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1902,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1911,19 +1915,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1973,13 +1977,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2008,10 +2012,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2022,7 +2026,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2031,16 +2035,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2091,19 +2095,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2126,10 +2130,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2140,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -2152,13 +2156,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2209,13 +2213,13 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -2233,7 +2237,7 @@
         <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>38</v>
@@ -2244,14 +2248,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2270,16 +2274,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2317,19 +2321,19 @@
         <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2341,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2353,7 +2357,7 @@
         <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>38</v>
@@ -2364,10 +2368,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2378,7 +2382,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2387,19 +2391,19 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2449,19 +2453,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2484,10 +2488,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2498,7 +2502,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2507,19 +2511,19 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2569,19 +2573,19 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -2604,10 +2608,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2618,7 +2622,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -2627,19 +2631,19 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2689,19 +2693,19 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2724,10 +2728,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2738,7 +2742,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2747,19 +2751,19 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2809,7 +2813,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2821,7 +2825,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2844,10 +2848,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2867,19 +2871,19 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2905,13 +2909,13 @@
         <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>38</v>
@@ -2929,7 +2933,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2941,7 +2945,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2964,10 +2968,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2978,7 +2982,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2987,19 +2991,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3025,13 +3029,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -3049,7 +3053,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3061,7 +3065,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3084,10 +3088,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3098,28 +3102,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3169,19 +3173,19 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3204,10 +3208,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3218,7 +3222,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3230,16 +3234,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3265,13 +3269,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3289,19 +3293,19 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3324,21 +3328,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3350,16 +3354,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3409,19 +3413,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3433,7 +3437,7 @@
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3444,14 +3448,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3470,16 +3474,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3529,7 +3533,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3553,7 +3557,7 @@
         <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>38</v>
@@ -3564,14 +3568,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3590,16 +3594,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3649,7 +3653,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3661,7 +3665,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3673,7 +3677,7 @@
         <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
@@ -3684,14 +3688,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3704,25 +3708,25 @@
         <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3771,7 +3775,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3783,7 +3787,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3795,7 +3799,7 @@
         <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3806,10 +3810,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3829,20 +3833,20 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3891,7 +3895,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3903,22 +3907,22 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -3926,14 +3930,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3949,20 +3953,20 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4011,7 +4015,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4023,19 +4027,19 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4046,14 +4050,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4069,19 +4073,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4131,7 +4135,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4143,19 +4147,19 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4166,10 +4170,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4177,34 +4181,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4229,13 +4233,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4253,34 +4257,34 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -4288,10 +4292,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4314,19 +4318,19 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4351,13 +4355,13 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4375,7 +4379,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4387,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -4399,10 +4403,10 @@
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -4410,21 +4414,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4433,22 +4437,22 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4473,13 +4477,13 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4497,45 +4501,45 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4546,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4555,22 +4559,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4619,34 +4623,34 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>38</v>
@@ -4654,10 +4658,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4677,19 +4681,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4739,7 +4743,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4751,7 +4755,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -4760,13 +4764,13 @@
         <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>38</v>
@@ -4774,21 +4778,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4797,22 +4801,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4861,34 +4865,34 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>38</v>
@@ -4896,21 +4900,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4919,22 +4923,22 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4983,34 +4987,34 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>38</v>
@@ -5018,10 +5022,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5032,7 +5036,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5041,19 +5045,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5103,19 +5107,19 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -5124,13 +5128,13 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5138,10 +5142,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5161,20 +5165,20 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5223,7 +5227,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5235,22 +5239,22 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5258,10 +5262,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5272,7 +5276,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5281,22 +5285,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5333,58 +5337,58 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -5394,7 +5398,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5403,22 +5407,22 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5443,11 +5447,11 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5465,45 +5469,45 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5514,7 +5518,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5526,19 +5530,19 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -5563,13 +5567,13 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
@@ -5587,19 +5591,19 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5608,10 +5612,10 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5622,14 +5626,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5648,19 +5652,19 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5685,13 +5689,13 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
@@ -5709,7 +5713,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5721,33 +5725,33 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5770,19 +5774,19 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5831,7 +5835,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5843,7 +5847,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5852,10 +5856,10 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -5866,10 +5870,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5880,7 +5884,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5892,16 +5896,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5927,13 +5931,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5951,45 +5955,45 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6000,7 +6004,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -6012,19 +6016,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6049,13 +6053,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -6073,19 +6077,19 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -6094,10 +6098,10 @@
         <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6108,10 +6112,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6122,7 +6126,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6134,16 +6138,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6193,45 +6197,45 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6242,7 +6246,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6254,16 +6258,16 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6313,45 +6317,45 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6374,19 +6378,19 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6435,7 +6439,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6447,7 +6451,7 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6456,10 +6460,10 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6470,10 +6474,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6484,7 +6488,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6496,13 +6500,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6553,13 +6557,13 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
@@ -6577,7 +6581,7 @@
         <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6588,14 +6592,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6614,16 +6618,16 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6673,7 +6677,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6685,7 +6689,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6697,7 +6701,7 @@
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6708,14 +6712,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6728,25 +6732,25 @@
         <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6795,7 +6799,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6807,7 +6811,7 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6819,7 +6823,7 @@
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6830,10 +6834,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6844,7 +6848,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6856,13 +6860,13 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6913,19 +6917,19 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -6934,10 +6938,10 @@
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -6948,10 +6952,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6962,7 +6966,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6974,13 +6978,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7031,19 +7035,19 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -7052,10 +7056,10 @@
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7066,10 +7070,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7080,7 +7084,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7092,19 +7096,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7129,13 +7133,13 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
@@ -7153,31 +7157,31 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7188,10 +7192,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7214,19 +7218,19 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7251,13 +7255,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7275,7 +7279,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -7287,19 +7291,19 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>38</v>
@@ -7310,10 +7314,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7324,7 +7328,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7336,17 +7340,17 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7395,19 +7399,19 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7419,7 +7423,7 @@
         <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7430,10 +7434,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7444,7 +7448,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7456,13 +7460,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7513,19 +7517,19 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7534,10 +7538,10 @@
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7548,10 +7552,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7571,19 +7575,19 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7633,7 +7637,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7645,7 +7649,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7654,10 +7658,10 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7668,10 +7672,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7691,19 +7695,19 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7753,7 +7757,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7765,7 +7769,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7774,10 +7778,10 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -7788,10 +7792,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7811,22 +7815,22 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7875,7 +7879,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7887,7 +7891,7 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -7896,10 +7900,10 @@
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -7910,10 +7914,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7924,7 +7928,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7936,13 +7940,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7993,13 +7997,13 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
@@ -8017,7 +8021,7 @@
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8028,14 +8032,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8054,16 +8058,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8113,7 +8117,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8125,7 +8129,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8137,7 +8141,7 @@
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8148,14 +8152,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8168,25 +8172,25 @@
         <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8235,7 +8239,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8247,7 +8251,7 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8259,7 +8263,7 @@
         <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>38</v>
@@ -8270,10 +8274,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8281,10 +8285,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8293,22 +8297,22 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8333,13 +8337,13 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -8357,34 +8361,34 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>38</v>
@@ -8392,10 +8396,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8406,7 +8410,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8415,22 +8419,22 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8479,45 +8483,45 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8528,7 +8532,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8540,19 +8544,19 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8577,13 +8581,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8601,19 +8605,19 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8622,10 +8626,10 @@
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -8636,14 +8640,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8662,19 +8666,19 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8699,13 +8703,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8723,7 +8727,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8735,33 +8739,33 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8787,16 +8791,16 @@
         <v>39</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8845,7 +8849,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8857,7 +8861,7 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8866,10 +8870,10 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T18:33:36+00:00</t>
+    <t>2023-11-09T20:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t>Vital Signs
@@ -1719,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1732,10 +1858,11 @@
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1743,7143 +1870,7271 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="11.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="30.0703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="M1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>38</v>
+      <c r="N1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>38</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>38</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>38</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>376</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>38</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>378</v>
+        <v>190</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>418</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>309</v>
+        <v>424</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>63</v>
+        <v>442</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>410</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>64</v>
+        <v>465</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>469</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>67</v>
+        <v>470</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>443</v>
+        <v>320</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>38</v>
+        <v>482</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>38</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>301</v>
+        <v>484</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>302</v>
+        <v>485</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>303</v>
+        <v>486</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>447</v>
+        <v>343</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>448</v>
+        <v>344</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>38</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,7 +433,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,7 +453,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1440,7 +1440,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:37:11+00:00</t>
+    <t>2024-10-02T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Ferlab.bio (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -256,9 +262,6 @@
     <t>*</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -433,7 +436,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,7 +456,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1440,7 +1443,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1682,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1782,21 +1785,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1836,6 +1839,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7242 +1910,7242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AN47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="552">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -834,6 +834,187 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/CodeSystem/cqdg-observation-code</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Disease-Status</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1856,7 +2037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP60"/>
+  <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1865,17 +2046,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1884,28 +2065,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4825,23 +5006,19 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4889,7 +5066,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4901,22 +5078,22 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
@@ -4924,14 +5101,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4947,19 +5124,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4997,19 +5174,19 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>274</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5021,7 +5198,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -5030,13 +5207,13 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5044,21 +5221,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -5070,19 +5247,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5131,13 +5308,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -5146,19 +5323,19 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5166,14 +5343,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5189,23 +5366,19 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5253,7 +5426,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5265,22 +5438,22 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5288,21 +5461,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5311,19 +5484,19 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5361,31 +5534,31 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5394,13 +5567,13 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5408,10 +5581,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5422,7 +5595,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5434,17 +5607,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5454,7 +5629,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5493,13 +5668,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5508,19 +5683,19 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
@@ -5528,10 +5703,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5554,20 +5729,18 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>319</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5603,17 +5776,19 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5622,7 +5797,7 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
@@ -5631,31 +5806,29 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5676,19 +5849,17 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5698,7 +5869,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5713,11 +5884,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5735,7 +5908,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5744,7 +5917,7 @@
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>104</v>
@@ -5753,27 +5926,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5793,22 +5966,20 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5833,13 +6004,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5857,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5866,7 +6037,7 @@
         <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>104</v>
@@ -5878,10 +6049,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5892,21 +6063,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5915,22 +6086,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5955,13 +6126,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5979,13 +6150,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -5997,27 +6168,27 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6028,7 +6199,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -6037,22 +6208,22 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>355</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6101,13 +6272,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -6122,10 +6293,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6136,10 +6307,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6159,21 +6330,23 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6197,13 +6370,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6221,7 +6394,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6236,30 +6409,30 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6270,7 +6443,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6279,23 +6452,21 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6319,13 +6490,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6343,13 +6514,13 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -6364,13 +6535,13 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>379</v>
+        <v>260</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6378,14 +6549,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6401,21 +6572,23 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6463,7 +6636,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6478,34 +6651,34 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6521,21 +6694,23 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6583,7 +6758,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6598,30 +6773,30 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6632,7 +6807,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6641,23 +6816,21 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6705,19 +6878,19 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6726,13 +6899,13 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6740,10 +6913,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6754,7 +6927,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6763,19 +6936,21 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6823,34 +6998,34 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>109</v>
+        <v>369</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6858,21 +7033,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6881,21 +7056,23 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6931,92 +7108,92 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>120</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>198</v>
+        <v>383</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7041,13 +7218,11 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7065,45 +7240,45 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7126,16 +7301,20 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7159,13 +7338,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7183,7 +7362,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7192,7 +7371,7 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>104</v>
@@ -7204,10 +7383,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7218,21 +7397,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7244,16 +7423,20 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7277,13 +7460,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7301,16 +7484,16 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>104</v>
@@ -7319,27 +7502,27 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>20</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7350,7 +7533,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7362,19 +7545,19 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7399,13 +7582,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>432</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7423,13 +7606,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -7441,13 +7624,13 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>433</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7458,10 +7641,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7472,7 +7655,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7487,17 +7670,15 @@
         <v>241</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7524,10 +7705,10 @@
         <v>158</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7545,13 +7726,13 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
@@ -7563,27 +7744,27 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7606,17 +7787,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>443</v>
+        <v>241</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7641,13 +7824,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7665,7 +7848,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7686,10 +7869,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7700,10 +7883,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7726,15 +7909,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7783,7 +7968,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7801,27 +7986,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7832,7 +8017,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7841,19 +8026,19 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7903,13 +8088,13 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
@@ -7921,19 +8106,19 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -7961,7 +8146,7 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>460</v>
@@ -7975,7 +8160,9 @@
       <c r="N51" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8035,7 +8222,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8044,10 +8231,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8058,10 +8245,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8072,7 +8259,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8081,23 +8268,19 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>466</v>
+        <v>107</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8145,19 +8328,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>465</v>
+        <v>109</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8166,10 +8349,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>470</v>
+        <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>471</v>
+        <v>110</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8180,21 +8363,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8206,15 +8389,17 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8263,19 +8448,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8298,14 +8483,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>112</v>
+        <v>471</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8318,24 +8503,26 @@
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>114</v>
+        <v>472</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>115</v>
+        <v>473</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8383,7 +8570,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>120</v>
+        <v>474</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8407,7 +8594,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8418,46 +8605,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>113</v>
+        <v>476</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8505,19 +8688,19 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8526,10 +8709,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>191</v>
+        <v>481</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8540,10 +8723,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8551,7 +8734,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>92</v>
@@ -8563,23 +8746,19 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8603,13 +8782,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8627,16 +8806,16 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>104</v>
@@ -8645,16 +8824,16 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>261</v>
+        <v>485</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8662,10 +8841,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8685,22 +8864,22 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>321</v>
+        <v>488</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>323</v>
+        <v>490</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8725,13 +8904,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>20</v>
+        <v>491</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8749,7 +8928,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8767,27 +8946,27 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>327</v>
+        <v>494</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8798,7 +8977,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8813,16 +8992,16 @@
         <v>241</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>337</v>
+        <v>499</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8847,13 +9026,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>338</v>
+        <v>500</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>339</v>
+        <v>501</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8871,16 +9050,16 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>104</v>
@@ -8889,13 +9068,13 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>20</v>
+        <v>493</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>191</v>
+        <v>494</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8906,21 +9085,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8932,19 +9111,17 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>344</v>
+        <v>504</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8969,13 +9146,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8993,13 +9170,13 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
@@ -9011,27 +9188,27 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>352</v>
+        <v>507</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9042,7 +9219,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -9054,20 +9231,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -9115,13 +9288,13 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
@@ -9136,15 +9309,1347 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AO60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP60" t="s" s="2">
+      <c r="P70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>20</v>
       </c>
     </row>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -815,7 +815,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1020,7 +1020,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1051,7 +1051,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1253,7 +1253,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1285,7 +1285,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1341,7 +1341,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1374,7 +1374,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1386,7 +1386,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1414,7 +1414,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1494,7 +1494,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1544,7 +1544,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1577,7 +1577,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1614,7 +1614,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1636,7 +1636,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2071,7 +2071,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="553">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Tags applied to this resource</t>
@@ -3186,10 +3189,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -3426,10 +3429,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3444,13 +3447,13 @@
         <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3476,13 +3479,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3500,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3535,10 +3538,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3564,13 +3567,13 @@
         <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3620,7 +3623,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3655,10 +3658,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3681,16 +3684,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3716,13 +3719,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3740,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3775,14 +3778,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3801,16 +3804,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3860,7 +3863,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3884,7 +3887,7 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3895,14 +3898,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3921,16 +3924,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3980,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4004,7 +4007,7 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4047,7 +4050,7 @@
         <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>116</v>
@@ -4100,7 +4103,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4124,7 +4127,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4135,10 +4138,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4164,16 +4167,16 @@
         <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4222,7 +4225,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4246,7 +4249,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4257,10 +4260,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4283,17 +4286,17 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4342,7 +4345,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4357,19 +4360,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4377,14 +4380,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4403,17 +4406,17 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4462,7 +4465,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4477,16 +4480,16 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4497,14 +4500,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4523,16 +4526,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4582,7 +4585,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4597,16 +4600,16 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4617,10 +4620,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4643,19 +4646,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4680,13 +4683,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4704,7 +4707,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>92</v>
@@ -4719,19 +4722,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4739,10 +4742,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4765,19 +4768,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4802,13 +4805,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4826,7 +4829,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4850,10 +4853,10 @@
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4861,14 +4864,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4887,19 +4890,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4924,13 +4927,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4948,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>92</v>
@@ -4963,30 +4966,30 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5101,10 +5104,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5221,10 +5224,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5250,16 +5253,16 @@
         <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5308,7 +5311,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5329,10 +5332,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5343,10 +5346,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5461,10 +5464,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5581,10 +5584,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5610,16 +5613,16 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5629,7 +5632,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5668,7 +5671,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5689,10 +5692,10 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5703,10 +5706,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5732,13 +5735,13 @@
         <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5788,7 +5791,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5809,10 +5812,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5823,10 +5826,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5849,17 +5852,17 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5869,7 +5872,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5908,7 +5911,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5929,10 +5932,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5943,10 +5946,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5972,14 +5975,14 @@
         <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6028,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6049,10 +6052,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6063,10 +6066,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6089,19 +6092,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6150,7 +6153,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6171,10 +6174,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6185,10 +6188,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6214,16 +6217,16 @@
         <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6272,7 +6275,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6293,10 +6296,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6307,10 +6310,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6333,19 +6336,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6394,7 +6397,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6409,19 +6412,19 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6429,10 +6432,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6455,16 +6458,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6514,7 +6517,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6535,13 +6538,13 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6549,14 +6552,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6575,19 +6578,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6636,7 +6639,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6651,19 +6654,19 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6671,14 +6674,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6697,19 +6700,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6758,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6773,19 +6776,19 @@
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6793,10 +6796,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6822,13 +6825,13 @@
         <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6878,7 +6881,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6899,13 +6902,13 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6913,10 +6916,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6939,17 +6942,17 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6998,7 +7001,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7013,19 +7016,19 @@
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -7033,10 +7036,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7059,19 +7062,19 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7108,7 +7111,7 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -7118,7 +7121,7 @@
         <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7127,7 +7130,7 @@
         <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>104</v>
@@ -7136,30 +7139,30 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>20</v>
@@ -7181,19 +7184,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7218,11 +7221,11 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7240,7 +7243,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7249,7 +7252,7 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7258,27 +7261,27 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7301,19 +7304,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7341,10 +7344,10 @@
         <v>150</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7362,7 +7365,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7371,7 +7374,7 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>104</v>
@@ -7383,10 +7386,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7397,14 +7400,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7423,19 +7426,19 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7463,10 +7466,10 @@
         <v>150</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7484,7 +7487,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7502,27 +7505,27 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7545,19 +7548,19 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7606,7 +7609,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7627,10 +7630,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7641,10 +7644,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7667,16 +7670,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7702,13 +7705,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7726,7 +7729,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7744,27 +7747,27 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7787,19 +7790,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7824,13 +7827,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7848,7 +7851,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7869,10 +7872,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7883,10 +7886,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7909,16 +7912,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7968,7 +7971,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7986,27 +7989,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8029,16 +8032,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8088,7 +8091,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8106,27 +8109,27 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8149,19 +8152,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8210,7 +8213,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8222,7 +8225,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8231,10 +8234,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8245,10 +8248,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8363,10 +8366,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8483,14 +8486,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8512,16 +8515,16 @@
         <v>113</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8570,7 +8573,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8594,7 +8597,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8605,10 +8608,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8631,13 +8634,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8688,7 +8691,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8697,7 +8700,7 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>104</v>
@@ -8709,10 +8712,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8723,10 +8726,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8749,13 +8752,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8806,7 +8809,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8815,7 +8818,7 @@
         <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>104</v>
@@ -8827,10 +8830,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8841,10 +8844,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8867,19 +8870,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8904,13 +8907,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8928,7 +8931,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8946,13 +8949,13 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8963,10 +8966,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8989,19 +8992,19 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9026,13 +9029,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9050,7 +9053,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9068,13 +9071,13 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -9085,10 +9088,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9111,17 +9114,17 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9170,7 +9173,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9194,7 +9197,7 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9205,10 +9208,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9234,10 +9237,10 @@
         <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9288,7 +9291,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9309,10 +9312,10 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -9323,10 +9326,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9349,16 +9352,16 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9408,7 +9411,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9429,10 +9432,10 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9443,10 +9446,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9469,16 +9472,16 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9528,7 +9531,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9549,10 +9552,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9563,10 +9566,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9589,19 +9592,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9650,7 +9653,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9671,10 +9674,10 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9685,10 +9688,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9803,10 +9806,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9923,14 +9926,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9952,16 +9955,16 @@
         <v>113</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>116</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10010,7 +10013,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10034,7 +10037,7 @@
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10045,10 +10048,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10071,19 +10074,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10108,13 +10111,13 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10132,7 +10135,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>92</v>
@@ -10150,16 +10153,16 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>20</v>
@@ -10167,10 +10170,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10193,19 +10196,19 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10254,7 +10257,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10272,27 +10275,27 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10315,19 +10318,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10355,10 +10358,10 @@
         <v>150</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10376,7 +10379,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10385,7 +10388,7 @@
         <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>104</v>
@@ -10397,10 +10400,10 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10411,14 +10414,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10437,19 +10440,19 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10477,10 +10480,10 @@
         <v>150</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10498,7 +10501,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10516,27 +10519,27 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10562,16 +10565,16 @@
         <v>82</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10620,7 +10623,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10641,10 +10644,10 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
+++ b/docs/StructureDefinition-CQDGObservationDiseaseStatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
